--- a/Emission_Drone/Viable options.xlsx
+++ b/Emission_Drone/Viable options.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\DSE_AEMS\Emission_Drone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D66E8-12A1-4B98-AFDF-B9E61DD8383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451F2024-4B75-4CA9-97C9-9A5304C5FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="2700" windowWidth="17280" windowHeight="8976" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="6-inch" sheetId="2" r:id="rId2"/>
-    <sheet name="7-inchh" sheetId="3" r:id="rId3"/>
+    <sheet name="7-inch" sheetId="3" r:id="rId3"/>
     <sheet name="8-inch" sheetId="4" r:id="rId4"/>
     <sheet name="9-inch" sheetId="5" r:id="rId5"/>
     <sheet name="10-inch" sheetId="6" r:id="rId6"/>
@@ -30,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
+  <si>
+    <t>APC 6x6E</t>
+  </si>
   <si>
     <t>APC 6×5.5E</t>
   </si>
@@ -38,6 +41,9 @@
     <t>APC 7x6E</t>
   </si>
   <si>
+    <t>APC 7x4E</t>
+  </si>
+  <si>
     <t>APC B7x5E</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
     <t>APC B11x5.5E</t>
   </si>
   <si>
+    <t>APC 12 x 4.5MR</t>
+  </si>
+  <si>
+    <t>APC 12 x 5.5 MR</t>
+  </si>
+  <si>
     <t>3-Blatt-Luftsch.11x6</t>
   </si>
   <si>
@@ -128,6 +140,15 @@
     <t>NS 15x5</t>
   </si>
   <si>
+    <t>FA 15.2x5</t>
+  </si>
+  <si>
+    <t>P13x4.4</t>
+  </si>
+  <si>
+    <t>P14x4.8</t>
+  </si>
+  <si>
     <t>P15x5</t>
   </si>
   <si>
@@ -164,6 +185,9 @@
     <t>Maximum Allowed RPM</t>
   </si>
   <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
     <t>Hover RPM</t>
   </si>
   <si>
@@ -174,9 +198,6 @@
   </si>
   <si>
     <t>Maximum Torque</t>
-  </si>
-  <si>
-    <t>Aspect Ratio</t>
   </si>
 </sst>
 </file>
@@ -602,55 +623,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:J40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -661,7 +677,7 @@
         <v>0.15240000000000001</v>
       </c>
       <c r="C2">
-        <v>0.13969999999999999</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D2">
         <v>25000</v>
@@ -670,19 +686,19 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>6.1</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="G2">
-        <v>15500</v>
+        <v>13800</v>
       </c>
       <c r="H2">
-        <v>24500</v>
+        <v>21800</v>
       </c>
       <c r="I2">
-        <v>9.5401241615721694E-2</v>
+        <v>6.3088188250160368E-2</v>
       </c>
       <c r="J2">
-        <v>0.2383541947131611</v>
+        <v>0.1574355733249643</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -690,31 +706,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.17780000000000001</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="C3">
-        <v>0.15240000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D3">
-        <v>21428.571428571431</v>
+        <v>25000</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>5.1250000000000009</v>
+        <v>6.1</v>
       </c>
       <c r="G3">
-        <v>11000</v>
+        <v>14400</v>
       </c>
       <c r="H3">
-        <v>17400</v>
+        <v>22700</v>
       </c>
       <c r="I3">
-        <v>0.11920150138919371</v>
+        <v>8.2340900984125096E-2</v>
       </c>
       <c r="J3">
-        <v>0.29825988893051458</v>
+        <v>0.20461729778216539</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -725,7 +741,7 @@
         <v>0.17780000000000001</v>
       </c>
       <c r="C4">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D4">
         <v>21428.571428571431</v>
@@ -734,19 +750,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5.1250000000000009</v>
       </c>
       <c r="G4">
-        <v>12800</v>
+        <v>10900</v>
       </c>
       <c r="H4">
-        <v>20100</v>
+        <v>17300</v>
       </c>
       <c r="I4">
-        <v>9.7991646077695435E-2</v>
+        <v>0.1170440527276867</v>
       </c>
       <c r="J4">
-        <v>0.24163577228912189</v>
+        <v>0.2948414657088575</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -754,31 +770,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.20319999999999999</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="C5">
         <v>0.1016</v>
       </c>
       <c r="D5">
-        <v>18750</v>
+        <v>21428.571428571431</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>5.3</v>
+        <v>5.3478260869565224</v>
       </c>
       <c r="G5">
-        <v>11100</v>
+        <v>13300</v>
       </c>
       <c r="H5">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="I5">
-        <v>0.1040110121136425</v>
+        <v>9.0068154681091916E-2</v>
       </c>
       <c r="J5">
-        <v>0.25852911662854511</v>
+        <v>0.22454664601934279</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,31 +802,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.20319999999999999</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="C6">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D6">
-        <v>18750</v>
+        <v>21428.571428571431</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>9100</v>
+        <v>11900</v>
       </c>
       <c r="H6">
-        <v>14400</v>
+        <v>18800</v>
       </c>
       <c r="I6">
-        <v>0.1233214958834094</v>
+        <v>8.4696026617812822E-2</v>
       </c>
       <c r="J6">
-        <v>0.30880262512237372</v>
+        <v>0.2113901818219035</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -818,31 +834,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2286</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="C7">
-        <v>0.15240000000000001</v>
+        <v>0.1016</v>
       </c>
       <c r="D7">
-        <v>16666.666666666672</v>
+        <v>18750</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="G7">
-        <v>7600</v>
+        <v>10900</v>
       </c>
       <c r="H7">
-        <v>12000</v>
+        <v>17200</v>
       </c>
       <c r="I7">
-        <v>0.13163151231663089</v>
+        <v>0.1002966346012651</v>
       </c>
       <c r="J7">
-        <v>0.3281672052215176</v>
+        <v>0.24974123710494289</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,31 +866,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2286</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="C8">
-        <v>0.1143</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D8">
-        <v>16666.666666666672</v>
+        <v>18750</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="G8">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="H8">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="I8">
-        <v>0.1095330209939665</v>
+        <v>0.1179603391972571</v>
       </c>
       <c r="J8">
-        <v>0.27427565793151659</v>
+        <v>0.29606987799276202</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -882,31 +898,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.254</v>
+        <v>0.2286</v>
       </c>
       <c r="C9">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D9">
-        <v>15000</v>
+        <v>16666.666666666672</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>6.17</v>
+        <v>5.25</v>
       </c>
       <c r="G9">
         <v>7500</v>
       </c>
       <c r="H9">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="I9">
-        <v>0.1187872547583685</v>
+        <v>0.12819031453965529</v>
       </c>
       <c r="J9">
-        <v>0.29904823371257899</v>
+        <v>0.31731945593780631</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,31 +930,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.254</v>
+        <v>0.2286</v>
       </c>
       <c r="C10">
-        <v>0.15240000000000001</v>
+        <v>0.1143</v>
       </c>
       <c r="D10">
-        <v>15000</v>
+        <v>16666.666666666672</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>6.45</v>
+        <v>5.9</v>
       </c>
       <c r="G10">
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="H10">
-        <v>11100</v>
+        <v>13600</v>
       </c>
       <c r="I10">
-        <v>0.12319023788210311</v>
+        <v>9.7827100986762033E-2</v>
       </c>
       <c r="J10">
-        <v>0.30976059611130452</v>
+        <v>0.2446471146364454</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -946,31 +962,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.27939999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C11">
-        <v>0.13969999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="D11">
-        <v>13636.36363636364</v>
+        <v>15000</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>7.0666666666666664</v>
+        <v>6.17</v>
       </c>
       <c r="G11">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="H11">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="I11">
-        <v>0.1236656192011525</v>
+        <v>0.103476897478401</v>
       </c>
       <c r="J11">
-        <v>0.3070632087418883</v>
+        <v>0.25552458356911278</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -978,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.27939999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="C12">
         <v>0.15240000000000001</v>
@@ -987,22 +1003,22 @@
         <v>15000</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>6.6</v>
+        <v>6.45</v>
       </c>
       <c r="G12">
-        <v>5000</v>
+        <v>6400</v>
       </c>
       <c r="H12">
-        <v>7900</v>
+        <v>10100</v>
       </c>
       <c r="I12">
-        <v>0.1947870324253643</v>
+        <v>0.10297698252348859</v>
       </c>
       <c r="J12">
-        <v>0.48626634774667948</v>
+        <v>0.25646196257863962</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,31 +1026,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.30480000000000002</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C13">
-        <v>0.15240000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D13">
-        <v>13500</v>
+        <v>13636.36363636364</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>6.6</v>
+        <v>7.0666666666666664</v>
       </c>
       <c r="G13">
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="H13">
-        <v>6900</v>
+        <v>9100</v>
       </c>
       <c r="I13">
-        <v>0.20933110020404891</v>
+        <v>9.5503017215949712E-2</v>
       </c>
       <c r="J13">
-        <v>0.51478583061543226</v>
+        <v>0.23509526919300819</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1045,28 +1061,28 @@
         <v>0.30480000000000002</v>
       </c>
       <c r="C14">
-        <v>0.15240000000000001</v>
+        <v>0.1143</v>
       </c>
       <c r="D14">
-        <v>13500</v>
+        <v>9545.454545454546</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G14">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="H14">
-        <v>6900</v>
+        <v>8800</v>
       </c>
       <c r="I14">
-        <v>0.20933110020404891</v>
+        <v>0.11311934594942839</v>
       </c>
       <c r="J14">
-        <v>0.51478583061543226</v>
+        <v>0.27933552775267012</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1074,31 +1090,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.33019999999999999</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C15">
-        <v>0.15240000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D15">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G15">
-        <v>3900</v>
+        <v>5100</v>
       </c>
       <c r="H15">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="I15">
-        <v>0.22362700813812639</v>
+        <v>0.1152978540983185</v>
       </c>
       <c r="J15">
-        <v>0.56516911195460739</v>
+        <v>0.28370098663177179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1106,13 +1122,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.33019999999999999</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C16">
         <v>0.15240000000000001</v>
       </c>
       <c r="D16">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1121,16 +1137,16 @@
         <v>6.6</v>
       </c>
       <c r="G16">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="H16">
-        <v>6200</v>
+        <v>7100</v>
       </c>
       <c r="I16">
-        <v>0.22362700813812639</v>
+        <v>0.1577774962645451</v>
       </c>
       <c r="J16">
-        <v>0.56516911195460739</v>
+        <v>0.39276857218250472</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1138,31 +1154,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.27939999999999998</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C17">
-        <v>0.1016</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D17">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G17">
-        <v>7700</v>
+        <v>4000</v>
       </c>
       <c r="H17">
-        <v>12100</v>
+        <v>6300</v>
       </c>
       <c r="I17">
-        <v>0.1205190861118845</v>
+        <v>0.17300090925954459</v>
       </c>
       <c r="J17">
-        <v>0.29760835550077602</v>
+        <v>0.4291503805319577</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1170,31 +1186,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.27939999999999998</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C18">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D18">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G18">
-        <v>6900</v>
+        <v>4000</v>
       </c>
       <c r="H18">
-        <v>10900</v>
+        <v>6300</v>
       </c>
       <c r="I18">
-        <v>0.12055228047046131</v>
+        <v>0.17300090925954459</v>
       </c>
       <c r="J18">
-        <v>0.30083630419440249</v>
+        <v>0.4291503805319577</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1202,31 +1218,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.27939999999999998</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C19">
         <v>0.15240000000000001</v>
       </c>
       <c r="D19">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G19">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="H19">
-        <v>10000</v>
+        <v>5600</v>
       </c>
       <c r="I19">
-        <v>0.1244593665859418</v>
+        <v>0.18010722220197559</v>
       </c>
       <c r="J19">
-        <v>0.31357865101018351</v>
+        <v>0.46107448883705737</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1234,31 +1250,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.30480000000000002</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C20">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D20">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G20">
-        <v>6100</v>
+        <v>3500</v>
       </c>
       <c r="H20">
-        <v>9500</v>
+        <v>5600</v>
       </c>
       <c r="I20">
-        <v>0.1328699357973657</v>
+        <v>0.18010722220197559</v>
       </c>
       <c r="J20">
-        <v>0.3222658346066179</v>
+        <v>0.46107448883705737</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1266,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.30480000000000002</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C21">
-        <v>0.15240000000000001</v>
+        <v>0.1016</v>
       </c>
       <c r="D21">
         <v>13000</v>
@@ -1281,16 +1297,16 @@
         <v>7.1</v>
       </c>
       <c r="G21">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="H21">
-        <v>8700</v>
+        <v>10600</v>
       </c>
       <c r="I21">
-        <v>0.1318526775016288</v>
+        <v>9.3992284395573292E-2</v>
       </c>
       <c r="J21">
-        <v>0.32991501355696801</v>
+        <v>0.22839474642488361</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1298,13 +1314,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3175</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C22">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D22">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1313,16 +1329,16 @@
         <v>7.1</v>
       </c>
       <c r="G22">
-        <v>5200</v>
+        <v>6100</v>
       </c>
       <c r="H22">
-        <v>8200</v>
+        <v>9500</v>
       </c>
       <c r="I22">
-        <v>0.1378691648094858</v>
+        <v>9.4218659027638416E-2</v>
       </c>
       <c r="J22">
-        <v>0.34283737580583651</v>
+        <v>0.22852012838603511</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1330,13 +1346,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.33019999999999999</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C23">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D23">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1345,16 +1361,16 @@
         <v>7.1</v>
       </c>
       <c r="G23">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H23">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I23">
-        <v>0.1437644759524517</v>
+        <v>9.4857541930580519E-2</v>
       </c>
       <c r="J23">
-        <v>0.35620656335955547</v>
+        <v>0.2373476809496079</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1362,13 +1378,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.35560000000000003</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C24">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D24">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1377,16 +1393,16 @@
         <v>7.1</v>
       </c>
       <c r="G24">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="H24">
-        <v>6900</v>
+        <v>8400</v>
       </c>
       <c r="I24">
-        <v>0.15378148367819919</v>
+        <v>0.1003041251423811</v>
       </c>
       <c r="J24">
-        <v>0.37817853501648058</v>
+        <v>0.25195653506751198</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1394,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.38100000000000001</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C25">
         <v>0.15240000000000001</v>
       </c>
       <c r="D25">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1409,16 +1425,16 @@
         <v>7.1</v>
       </c>
       <c r="G25">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="H25">
-        <v>6300</v>
+        <v>7700</v>
       </c>
       <c r="I25">
-        <v>0.16745967130222289</v>
+        <v>0.1046539764236068</v>
       </c>
       <c r="J25">
-        <v>0.41540464712407671</v>
+        <v>0.25843124790319238</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1426,31 +1442,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.33019999999999999</v>
+        <v>0.3175</v>
       </c>
       <c r="C26">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D26">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G26">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="H26">
-        <v>8200</v>
+        <v>7200</v>
       </c>
       <c r="I26">
-        <v>0.1462146841954664</v>
+        <v>0.1078887399174822</v>
       </c>
       <c r="J26">
-        <v>0.36359006528488008</v>
+        <v>0.26431721537439867</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1461,28 +1477,28 @@
         <v>0.33019999999999999</v>
       </c>
       <c r="C27">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D27">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G27">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H27">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I27">
-        <v>0.15055493513046769</v>
+        <v>0.1089079997870253</v>
       </c>
       <c r="J27">
-        <v>0.36756575959586862</v>
+        <v>0.26997745895597591</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1493,28 +1509,28 @@
         <v>0.35560000000000003</v>
       </c>
       <c r="C28">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D28">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G28">
-        <v>4700</v>
+        <v>3900</v>
       </c>
       <c r="H28">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="I28">
-        <v>0.16166686855684689</v>
+        <v>0.12081696109222161</v>
       </c>
       <c r="J28">
-        <v>0.400764043556946</v>
+        <v>0.29556864709017527</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1522,31 +1538,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.35560000000000003</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C29">
         <v>0.15240000000000001</v>
       </c>
       <c r="D29">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="G29">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="H29">
-        <v>6700</v>
+        <v>5500</v>
       </c>
       <c r="I29">
-        <v>0.16143620569358899</v>
+        <v>0.1282113108407644</v>
       </c>
       <c r="J29">
-        <v>0.3919346281008767</v>
+        <v>0.31660344105576532</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1554,13 +1570,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.38100000000000001</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C30">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D30">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1569,16 +1585,16 @@
         <v>6.6</v>
       </c>
       <c r="G30">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="H30">
-        <v>6100</v>
+        <v>7400</v>
       </c>
       <c r="I30">
-        <v>0.17473603932466761</v>
+        <v>0.1194483126434117</v>
       </c>
       <c r="J30">
-        <v>0.427477187591774</v>
+        <v>0.29610636488697262</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1586,13 +1602,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.38100000000000001</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C31">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D31">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1601,16 +1617,16 @@
         <v>6.6</v>
       </c>
       <c r="G31">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H31">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I31">
-        <v>0.17192545878493171</v>
+        <v>0.12082294924315749</v>
       </c>
       <c r="J31">
-        <v>0.42455062271381089</v>
+        <v>0.30215539064378599</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1621,28 +1637,28 @@
         <v>0.35560000000000003</v>
       </c>
       <c r="C32">
-        <v>0.12192</v>
+        <v>0.127</v>
       </c>
       <c r="D32">
-        <v>8900</v>
+        <v>13000</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G32">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="H32">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="I32">
-        <v>0.1508390961936158</v>
+        <v>0.12909930110198189</v>
       </c>
       <c r="J32">
-        <v>0.37655471973774252</v>
+        <v>0.32852991079750388</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1650,31 +1666,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.38100000000000001</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="C33">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D33">
-        <v>8750</v>
+        <v>13000</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G33">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="H33">
-        <v>7000</v>
+        <v>6100</v>
       </c>
       <c r="I33">
-        <v>0.16128214439598779</v>
+        <v>0.13279852290965319</v>
       </c>
       <c r="J33">
-        <v>0.40820377455596091</v>
+        <v>0.32488054158239299</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1685,28 +1701,28 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="C34">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D34">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G34">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="H34">
-        <v>6900</v>
+        <v>5500</v>
       </c>
       <c r="I34">
-        <v>0.16958872277741049</v>
+        <v>0.14073086664872969</v>
       </c>
       <c r="J34">
-        <v>0.41705160596242319</v>
+        <v>0.34751907886727129</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1714,31 +1730,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.30480000000000002</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C35">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D35">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35">
-        <v>7.5714285714285721</v>
+        <v>6.6</v>
       </c>
       <c r="G35">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="H35">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="I35">
-        <v>0.12988627980480799</v>
+        <v>0.1407371669418602</v>
       </c>
       <c r="J35">
-        <v>0.32381621003968741</v>
+        <v>0.35086828323455438</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1746,31 +1762,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.33019999999999999</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="C36">
-        <v>0.1016</v>
+        <v>0.12192</v>
       </c>
       <c r="D36">
-        <v>11538.461538461541</v>
+        <v>8900</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>7.5714285714285721</v>
+        <v>7.5</v>
       </c>
       <c r="G36">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="H36">
-        <v>9700</v>
+        <v>6800</v>
       </c>
       <c r="I36">
-        <v>0.14584562072781521</v>
+        <v>0.1115605955447983</v>
       </c>
       <c r="J36">
-        <v>0.3569878890291398</v>
+        <v>0.27899199231971178</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1778,31 +1794,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.33019999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C37">
-        <v>0.13969999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="D37">
-        <v>11538.461538461541</v>
+        <v>8750</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="G37">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="H37">
-        <v>8400</v>
+        <v>6000</v>
       </c>
       <c r="I37">
-        <v>0.13452916830275799</v>
+        <v>0.1202951531548587</v>
       </c>
       <c r="J37">
-        <v>0.33792730920051978</v>
+        <v>0.29990481395948149</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1810,31 +1826,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.35560000000000003</v>
+        <v>0.38607999999999998</v>
       </c>
       <c r="C38">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D38">
-        <v>10714.28571428571</v>
+        <v>6500</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>8.6666666666666661</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="H38">
-        <v>7500</v>
+        <v>5900</v>
       </c>
       <c r="I38">
-        <v>0.14104148539089781</v>
+        <v>0.111416266208164</v>
       </c>
       <c r="J38">
-        <v>0.34433956394262172</v>
+        <v>0.28330169661842131</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1842,31 +1858,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.38100000000000001</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="C39">
-        <v>0.1016</v>
+        <v>0.11176</v>
       </c>
       <c r="D39">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>8.6666666666666661</v>
+        <v>7.2</v>
       </c>
       <c r="G39">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H39">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="I39">
-        <v>0.1633199554921613</v>
+        <v>0.1083899582633205</v>
       </c>
       <c r="J39">
-        <v>0.4160914102757024</v>
+        <v>0.27058469180855338</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1874,19 +1890,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.38100000000000001</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="C40">
-        <v>0.15240000000000001</v>
+        <v>0.12192</v>
       </c>
       <c r="D40">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>8.6666666666666661</v>
+        <v>7.2</v>
       </c>
       <c r="G40">
         <v>4300</v>
@@ -1895,111 +1911,286 @@
         <v>6800</v>
       </c>
       <c r="I40">
-        <v>0.1497510565299284</v>
+        <v>0.1173437930437726</v>
       </c>
       <c r="J40">
-        <v>0.37449912676819291</v>
+        <v>0.2934546776822089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.127</v>
+      </c>
+      <c r="D41">
+        <v>7000</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>7.2</v>
+      </c>
+      <c r="G41">
+        <v>3800</v>
+      </c>
+      <c r="H41">
+        <v>6000</v>
+      </c>
+      <c r="I41">
+        <v>0.1264907622368702</v>
+      </c>
+      <c r="J41">
+        <v>0.31535093078444099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D42">
+        <v>12500</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>7.5714285714285721</v>
+      </c>
+      <c r="G42">
+        <v>4900</v>
+      </c>
+      <c r="H42">
+        <v>7700</v>
+      </c>
+      <c r="I42">
+        <v>9.5985521025344397E-2</v>
+      </c>
+      <c r="J42">
+        <v>0.23702547028707491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.1016</v>
+      </c>
+      <c r="D43">
+        <v>11538.461538461541</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>7.5714285714285721</v>
+      </c>
+      <c r="G43">
+        <v>5300</v>
+      </c>
+      <c r="H43">
+        <v>8300</v>
+      </c>
+      <c r="I43">
+        <v>0.1065765735235257</v>
+      </c>
+      <c r="J43">
+        <v>0.26137629583608718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="D44">
+        <v>11538.461538461541</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>7.8</v>
+      </c>
+      <c r="G44">
+        <v>4500</v>
+      </c>
+      <c r="H44">
+        <v>7100</v>
+      </c>
+      <c r="I44">
+        <v>9.6981689502700197E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.24142454162128971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C45">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D45">
+        <v>10714.28571428571</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G45">
+        <v>3900</v>
+      </c>
+      <c r="H45">
+        <v>6100</v>
+      </c>
+      <c r="I45">
+        <v>9.3109418090084897E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.2277844475431991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.1016</v>
+      </c>
+      <c r="D46">
+        <v>10000</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G46">
+        <v>4300</v>
+      </c>
+      <c r="H46">
+        <v>6700</v>
+      </c>
+      <c r="I46">
+        <v>0.11167847548262071</v>
+      </c>
+      <c r="J46">
+        <v>0.27113286989804442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D47">
+        <v>10000</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G47">
+        <v>3500</v>
+      </c>
+      <c r="H47">
+        <v>5500</v>
+      </c>
+      <c r="I47">
+        <v>9.9213112087161826E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.24499564413360381</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J40">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I40">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H40">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G40">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED0B504-A702-4E7F-B02D-0085605BDE01}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54446339-E56E-4E3C-B14B-327238D5ADC8}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.35560000000000003</v>
@@ -2017,21 +2208,21 @@
         <v>7.1</v>
       </c>
       <c r="G2">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="H2">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="I2">
-        <v>0.15378148367819919</v>
+        <v>0.12081696109222161</v>
       </c>
       <c r="J2">
-        <v>0.37817853501648058</v>
+        <v>0.29556864709017527</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.35560000000000003</v>
@@ -2049,21 +2240,21 @@
         <v>6.6</v>
       </c>
       <c r="G3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="H3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="I3">
-        <v>0.16166686855684689</v>
+        <v>0.12909930110198189</v>
       </c>
       <c r="J3">
-        <v>0.400764043556946</v>
+        <v>0.32852991079750388</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.35560000000000003</v>
@@ -2081,21 +2272,21 @@
         <v>6.6</v>
       </c>
       <c r="G4">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="H4">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="I4">
-        <v>0.16143620569358899</v>
+        <v>0.13279852290965319</v>
       </c>
       <c r="J4">
-        <v>0.3919346281008767</v>
+        <v>0.32488054158239299</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0.35560000000000003</v>
@@ -2113,1394 +2304,1060 @@
         <v>7.5</v>
       </c>
       <c r="G5">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="H5">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="I5">
-        <v>0.1508390961936158</v>
+        <v>0.1115605955447983</v>
       </c>
       <c r="J5">
-        <v>0.37655471973774252</v>
+        <v>0.27899199231971178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0.35560000000000003</v>
       </c>
       <c r="C6">
-        <v>0.15240000000000001</v>
+        <v>0.12192</v>
       </c>
       <c r="D6">
+        <v>7500</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7.2</v>
+      </c>
+      <c r="G6">
+        <v>4300</v>
+      </c>
+      <c r="H6">
+        <v>6800</v>
+      </c>
+      <c r="I6">
+        <v>0.1173437930437726</v>
+      </c>
+      <c r="J6">
+        <v>0.2934546776822089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D7">
         <v>10714.28571428571</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>8.6666666666666661</v>
       </c>
-      <c r="G6">
-        <v>4800</v>
-      </c>
-      <c r="H6">
-        <v>7500</v>
-      </c>
-      <c r="I6">
-        <v>0.14104148539089781</v>
-      </c>
-      <c r="J6">
-        <v>0.34433956394262172</v>
+      <c r="G7">
+        <v>3900</v>
+      </c>
+      <c r="H7">
+        <v>6100</v>
+      </c>
+      <c r="I7">
+        <v>9.3109418090084897E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.2277844475431991</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA3FBC-7EFD-4E14-87F8-8567A7D0FED1}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA05391-E2D9-4C35-B31C-049C9689FD99}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D2">
+        <v>9000</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>7.1</v>
+      </c>
+      <c r="G2">
+        <v>3500</v>
+      </c>
+      <c r="H2">
+        <v>5500</v>
+      </c>
+      <c r="I2">
+        <v>0.1282113108407644</v>
+      </c>
+      <c r="J2">
+        <v>0.31660344105576532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D3">
+        <v>11000</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>6.6</v>
+      </c>
+      <c r="G3">
+        <v>3500</v>
+      </c>
+      <c r="H3">
+        <v>5500</v>
+      </c>
+      <c r="I3">
+        <v>0.14073086664872969</v>
+      </c>
+      <c r="J3">
+        <v>0.34751907886727129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.127</v>
+      </c>
+      <c r="D4">
+        <v>11000</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6.6</v>
+      </c>
+      <c r="G4">
+        <v>3800</v>
+      </c>
+      <c r="H4">
+        <v>6000</v>
+      </c>
+      <c r="I4">
+        <v>0.1407371669418602</v>
+      </c>
+      <c r="J4">
+        <v>0.35086828323455438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.127</v>
+      </c>
+      <c r="D5">
+        <v>8750</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>7.5</v>
+      </c>
+      <c r="G5">
+        <v>3800</v>
+      </c>
+      <c r="H5">
+        <v>6000</v>
+      </c>
+      <c r="I5">
+        <v>0.1202951531548587</v>
+      </c>
+      <c r="J5">
+        <v>0.29990481395948149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>0.38607999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.127</v>
+      </c>
+      <c r="D6">
+        <v>6500</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>3700</v>
+      </c>
+      <c r="H6">
+        <v>5900</v>
+      </c>
+      <c r="I6">
+        <v>0.111416266208164</v>
+      </c>
+      <c r="J6">
+        <v>0.28330169661842131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.127</v>
+      </c>
+      <c r="D7">
+        <v>7000</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>7.2</v>
+      </c>
+      <c r="G7">
+        <v>3800</v>
+      </c>
+      <c r="H7">
+        <v>6000</v>
+      </c>
+      <c r="I7">
+        <v>0.1264907622368702</v>
+      </c>
+      <c r="J7">
+        <v>0.31535093078444099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.1016</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G8">
+        <v>4300</v>
+      </c>
+      <c r="H8">
+        <v>6700</v>
+      </c>
+      <c r="I8">
+        <v>0.11167847548262071</v>
+      </c>
+      <c r="J8">
+        <v>0.27113286989804442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G9">
+        <v>3500</v>
+      </c>
+      <c r="H9">
+        <v>5500</v>
+      </c>
+      <c r="I9">
+        <v>9.9213112087161826E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.24499564413360381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FB0BE8-A0AC-42F5-8702-A38E83F881F3}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.38100000000000001</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="C2">
         <v>0.15240000000000001</v>
       </c>
       <c r="D2">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>7.1</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="G2">
-        <v>4000</v>
+        <v>13800</v>
       </c>
       <c r="H2">
-        <v>6300</v>
+        <v>21800</v>
       </c>
       <c r="I2">
-        <v>0.16745967130222289</v>
+        <v>6.3088188250160368E-2</v>
       </c>
       <c r="J2">
-        <v>0.41540464712407671</v>
+        <v>0.1574355733249643</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.38100000000000001</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="C3">
-        <v>0.15240000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D3">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="G3">
-        <v>3900</v>
+        <v>14400</v>
       </c>
       <c r="H3">
-        <v>6100</v>
+        <v>22700</v>
       </c>
       <c r="I3">
-        <v>0.17473603932466761</v>
+        <v>8.2340900984125096E-2</v>
       </c>
       <c r="J3">
-        <v>0.427477187591774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.127</v>
-      </c>
-      <c r="D4">
-        <v>11000</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>6.6</v>
-      </c>
-      <c r="G4">
-        <v>4200</v>
-      </c>
-      <c r="H4">
-        <v>6600</v>
-      </c>
-      <c r="I4">
-        <v>0.17192545878493171</v>
-      </c>
-      <c r="J4">
-        <v>0.42455062271381089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.127</v>
-      </c>
-      <c r="D5">
-        <v>8750</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>7.5</v>
-      </c>
-      <c r="G5">
-        <v>4400</v>
-      </c>
-      <c r="H5">
-        <v>7000</v>
-      </c>
-      <c r="I5">
-        <v>0.16128214439598779</v>
-      </c>
-      <c r="J5">
-        <v>0.40820377455596091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.127</v>
-      </c>
-      <c r="D6">
-        <v>7000</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>7.2</v>
-      </c>
-      <c r="G6">
-        <v>4400</v>
-      </c>
-      <c r="H6">
-        <v>6900</v>
-      </c>
-      <c r="I6">
-        <v>0.16958872277741049</v>
-      </c>
-      <c r="J6">
-        <v>0.41705160596242319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.1016</v>
-      </c>
-      <c r="D7">
-        <v>10000</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="G7">
-        <v>5200</v>
-      </c>
-      <c r="H7">
-        <v>8300</v>
-      </c>
-      <c r="I7">
-        <v>0.1633199554921613</v>
-      </c>
-      <c r="J7">
-        <v>0.4160914102757024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="G8">
-        <v>4300</v>
-      </c>
-      <c r="H8">
-        <v>6800</v>
-      </c>
-      <c r="I8">
-        <v>0.1497510565299284</v>
-      </c>
-      <c r="J8">
-        <v>0.37449912676819291</v>
+        <v>0.20461729778216539</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBFB9B5-2E0A-4615-82A6-FB24F17AD421}">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDA7CDF-2789-4D5D-BA97-B0BB6E3FE331}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.15240000000000001</v>
+        <v>0.17780000000000001</v>
       </c>
       <c r="C2">
-        <v>0.13969999999999999</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D2">
-        <v>25000</v>
+        <v>21428.571428571431</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>6.1</v>
+        <v>5.1250000000000009</v>
       </c>
       <c r="G2">
-        <v>15500</v>
+        <v>10900</v>
       </c>
       <c r="H2">
-        <v>24500</v>
+        <v>17300</v>
       </c>
       <c r="I2">
-        <v>9.5401241615721694E-2</v>
+        <v>0.1170440527276867</v>
       </c>
       <c r="J2">
-        <v>0.2383541947131611</v>
+        <v>0.2948414657088575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.1016</v>
+      </c>
+      <c r="D3">
+        <v>21428.571428571431</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5.3478260869565224</v>
+      </c>
+      <c r="G3">
+        <v>13300</v>
+      </c>
+      <c r="H3">
+        <v>21000</v>
+      </c>
+      <c r="I3">
+        <v>9.0068154681091916E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.22454664601934279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.127</v>
+      </c>
+      <c r="D4">
+        <v>21428.571428571431</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>11900</v>
+      </c>
+      <c r="H4">
+        <v>18800</v>
+      </c>
+      <c r="I4">
+        <v>8.4696026617812822E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.2113901818219035</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A0B87-AC4D-4C1A-8257-185B47D5E27D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3F03D5-51CD-4BB0-9505-CB5FD3452899}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.17780000000000001</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="C2">
-        <v>0.15240000000000001</v>
+        <v>0.1016</v>
       </c>
       <c r="D2">
-        <v>21428.571428571431</v>
+        <v>18750</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>5.1250000000000009</v>
+        <v>5.3</v>
       </c>
       <c r="G2">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H2">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="I2">
-        <v>0.11920150138919371</v>
+        <v>0.1002966346012651</v>
       </c>
       <c r="J2">
-        <v>0.29825988893051458</v>
+        <v>0.24974123710494289</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.17780000000000001</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="C3">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D3">
-        <v>21428.571428571431</v>
+        <v>18750</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="G3">
-        <v>12800</v>
+        <v>8900</v>
       </c>
       <c r="H3">
-        <v>20100</v>
+        <v>14100</v>
       </c>
       <c r="I3">
-        <v>9.7991646077695435E-2</v>
+        <v>0.1179603391972571</v>
       </c>
       <c r="J3">
-        <v>0.24163577228912189</v>
+        <v>0.29606987799276202</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C110185E-203C-4EE8-8085-DE589212A01C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A99BDD-44B9-4181-BDD7-813A3FCFCE6F}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.20319999999999999</v>
+        <v>0.2286</v>
       </c>
       <c r="C2">
-        <v>0.1016</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D2">
-        <v>18750</v>
+        <v>16666.666666666672</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="G2">
-        <v>11100</v>
+        <v>7500</v>
       </c>
       <c r="H2">
-        <v>17500</v>
+        <v>11800</v>
       </c>
       <c r="I2">
-        <v>0.1040110121136425</v>
+        <v>0.12819031453965529</v>
       </c>
       <c r="J2">
-        <v>0.25852911662854511</v>
+        <v>0.31731945593780631</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.20319999999999999</v>
+        <v>0.2286</v>
       </c>
       <c r="C3">
-        <v>0.15240000000000001</v>
+        <v>0.1143</v>
       </c>
       <c r="D3">
-        <v>18750</v>
+        <v>16666.666666666672</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="G3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="H3">
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="I3">
-        <v>0.1233214958834094</v>
+        <v>9.7827100986762033E-2</v>
       </c>
       <c r="J3">
-        <v>0.30880262512237372</v>
+        <v>0.2446471146364454</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D27655-6057-453D-82D1-58B876F4D3F8}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE71A7CA-BB5D-4141-91CB-69C82FB46C18}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.2286</v>
+        <v>0.254</v>
       </c>
       <c r="C2">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D2">
-        <v>16666.666666666672</v>
+        <v>15000</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>5.25</v>
+        <v>6.17</v>
       </c>
       <c r="G2">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="H2">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="I2">
-        <v>0.13163151231663089</v>
+        <v>0.103476897478401</v>
       </c>
       <c r="J2">
-        <v>0.3281672052215176</v>
+        <v>0.25552458356911278</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2286</v>
+        <v>0.254</v>
       </c>
       <c r="C3">
-        <v>0.1143</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D3">
-        <v>16666.666666666672</v>
+        <v>15000</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>6.45</v>
       </c>
       <c r="G3">
-        <v>9100</v>
+        <v>6400</v>
       </c>
       <c r="H3">
-        <v>14400</v>
+        <v>10100</v>
       </c>
       <c r="I3">
-        <v>0.1095330209939665</v>
+        <v>0.10297698252348859</v>
       </c>
       <c r="J3">
-        <v>0.27427565793151659</v>
+        <v>0.25646196257863962</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D7ACE0-84A7-4DFA-A442-9D7A0F4DAB47}">
-  <dimension ref="A1:J3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BB8A81-170F-4321-B609-4C389D94AB86}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="A4" sqref="A4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.254</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C2">
-        <v>0.127</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D2">
-        <v>15000</v>
+        <v>13636.36363636364</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>6.17</v>
+        <v>7.0666666666666664</v>
       </c>
       <c r="G2">
-        <v>7500</v>
+        <v>5800</v>
       </c>
       <c r="H2">
-        <v>11900</v>
+        <v>9100</v>
       </c>
       <c r="I2">
-        <v>0.1187872547583685</v>
+        <v>9.5503017215949712E-2</v>
       </c>
       <c r="J2">
-        <v>0.29904823371257899</v>
+        <v>0.23509526919300819</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>0.254</v>
+        <v>0.27939999999999998</v>
       </c>
       <c r="C3">
         <v>0.15240000000000001</v>
@@ -3509,189 +3366,27 @@
         <v>15000</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>6.45</v>
-      </c>
-      <c r="G3">
-        <v>7000</v>
-      </c>
-      <c r="H3">
-        <v>11100</v>
-      </c>
-      <c r="I3">
-        <v>0.12319023788210311</v>
-      </c>
-      <c r="J3">
-        <v>0.30976059611130452</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D127784-3EFD-4E64-9D67-A8A28FB35B5A}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0.27939999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.13969999999999999</v>
-      </c>
-      <c r="D2">
-        <v>13636.36363636364</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>7.0666666666666664</v>
-      </c>
-      <c r="G2">
-        <v>6600</v>
-      </c>
-      <c r="H2">
-        <v>10400</v>
-      </c>
-      <c r="I2">
-        <v>0.1236656192011525</v>
-      </c>
-      <c r="J2">
-        <v>0.3070632087418883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>0.27939999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="D3">
-        <v>15000</v>
-      </c>
-      <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
         <v>6.6</v>
       </c>
       <c r="G3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="H3">
-        <v>7900</v>
+        <v>7100</v>
       </c>
       <c r="I3">
-        <v>0.1947870324253643</v>
+        <v>0.1577774962645451</v>
       </c>
       <c r="J3">
-        <v>0.48626634774667948</v>
+        <v>0.39276857218250472</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0.27939999999999998</v>
@@ -3709,21 +3404,21 @@
         <v>7.1</v>
       </c>
       <c r="G4">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="H4">
-        <v>12100</v>
+        <v>10600</v>
       </c>
       <c r="I4">
-        <v>0.1205190861118845</v>
+        <v>9.3992284395573292E-2</v>
       </c>
       <c r="J4">
-        <v>0.29760835550077602</v>
+        <v>0.22839474642488361</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.27939999999999998</v>
@@ -3741,21 +3436,21 @@
         <v>7.1</v>
       </c>
       <c r="G5">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="H5">
-        <v>10900</v>
+        <v>9500</v>
       </c>
       <c r="I5">
-        <v>0.12055228047046131</v>
+        <v>9.4218659027638416E-2</v>
       </c>
       <c r="J5">
-        <v>0.30083630419440249</v>
+        <v>0.22852012838603511</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0.27939999999999998</v>
@@ -3773,263 +3468,164 @@
         <v>7.1</v>
       </c>
       <c r="G6">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="H6">
-        <v>10000</v>
+        <v>8700</v>
       </c>
       <c r="I6">
-        <v>0.1244593665859418</v>
+        <v>9.4857541930580519E-2</v>
       </c>
       <c r="J6">
-        <v>0.31357865101018351</v>
+        <v>0.2373476809496079</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7512B7E-3C97-4A45-89F3-A424AFD36698}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14C7267-39DF-417F-9502-AE9C443EB28D}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.30480000000000002</v>
       </c>
       <c r="C2">
-        <v>0.15240000000000001</v>
+        <v>0.1143</v>
       </c>
       <c r="D2">
-        <v>13500</v>
+        <v>9545.454545454546</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>4400</v>
+        <v>5600</v>
       </c>
       <c r="H2">
-        <v>6900</v>
+        <v>8800</v>
       </c>
       <c r="I2">
-        <v>0.20933110020404891</v>
+        <v>0.11311934594942839</v>
       </c>
       <c r="J2">
-        <v>0.51478583061543226</v>
+        <v>0.27933552775267012</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.30480000000000002</v>
       </c>
       <c r="C3">
-        <v>0.15240000000000001</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="D3">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G3">
-        <v>4400</v>
+        <v>5100</v>
       </c>
       <c r="H3">
-        <v>6900</v>
+        <v>8000</v>
       </c>
       <c r="I3">
-        <v>0.20933110020404891</v>
+        <v>0.1152978540983185</v>
       </c>
       <c r="J3">
-        <v>0.51478583061543226</v>
+        <v>0.28370098663177179</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.30480000000000002</v>
       </c>
       <c r="C4">
-        <v>0.127</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="D4">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G4">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="H4">
-        <v>9500</v>
+        <v>6300</v>
       </c>
       <c r="I4">
-        <v>0.1328699357973657</v>
+        <v>0.17300090925954459</v>
       </c>
       <c r="J4">
-        <v>0.3222658346066179</v>
+        <v>0.4291503805319577</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.30480000000000002</v>
@@ -4038,39 +3634,39 @@
         <v>0.15240000000000001</v>
       </c>
       <c r="D5">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="G5">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="H5">
-        <v>8700</v>
+        <v>6300</v>
       </c>
       <c r="I5">
-        <v>0.1318526775016288</v>
+        <v>0.17300090925954459</v>
       </c>
       <c r="J5">
-        <v>0.32991501355696801</v>
+        <v>0.4291503805319577</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0.3175</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="C6">
-        <v>0.15240000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="D6">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4079,21 +3675,21 @@
         <v>7.1</v>
       </c>
       <c r="G6">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H6">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I6">
-        <v>0.1378691648094858</v>
+        <v>0.1003041251423811</v>
       </c>
       <c r="J6">
-        <v>0.34283737580583651</v>
+        <v>0.25195653506751198</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0.30480000000000002</v>
@@ -4102,224 +3698,141 @@
         <v>0.15240000000000001</v>
       </c>
       <c r="D7">
+        <v>13000</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>7.1</v>
+      </c>
+      <c r="G7">
+        <v>4900</v>
+      </c>
+      <c r="H7">
+        <v>7700</v>
+      </c>
+      <c r="I7">
+        <v>0.1046539764236068</v>
+      </c>
+      <c r="J7">
+        <v>0.25843124790319238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0.3175</v>
+      </c>
+      <c r="C8">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D8">
+        <v>12000</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>7.1</v>
+      </c>
+      <c r="G8">
+        <v>4600</v>
+      </c>
+      <c r="H8">
+        <v>7200</v>
+      </c>
+      <c r="I8">
+        <v>0.1078887399174822</v>
+      </c>
+      <c r="J8">
+        <v>0.26431721537439867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D9">
         <v>12500</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>7.5714285714285721</v>
       </c>
-      <c r="G7">
-        <v>5700</v>
-      </c>
-      <c r="H7">
-        <v>9000</v>
-      </c>
-      <c r="I7">
-        <v>0.12988627980480799</v>
-      </c>
-      <c r="J7">
-        <v>0.32381621003968741</v>
+      <c r="G9">
+        <v>4900</v>
+      </c>
+      <c r="H9">
+        <v>7700</v>
+      </c>
+      <c r="I9">
+        <v>9.5985521025344397E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.23702547028707491</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC84D70-693E-43F2-B4AF-54181D61485E}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402879CF-1CB8-4DED-BE21-E77809EDE5E6}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+      <selection activeCell="A8" sqref="A8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.33019999999999999</v>
@@ -4337,21 +3850,21 @@
         <v>6.6</v>
       </c>
       <c r="G2">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="H2">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="I2">
-        <v>0.22362700813812639</v>
+        <v>0.18010722220197559</v>
       </c>
       <c r="J2">
-        <v>0.56516911195460739</v>
+        <v>0.46107448883705737</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.33019999999999999</v>
@@ -4369,21 +3882,21 @@
         <v>6.6</v>
       </c>
       <c r="G3">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="H3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="I3">
-        <v>0.22362700813812639</v>
+        <v>0.18010722220197559</v>
       </c>
       <c r="J3">
-        <v>0.56516911195460739</v>
+        <v>0.46107448883705737</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0.33019999999999999</v>
@@ -4401,21 +3914,21 @@
         <v>7.1</v>
       </c>
       <c r="G4">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="H4">
-        <v>8500</v>
+        <v>7400</v>
       </c>
       <c r="I4">
-        <v>0.1437644759524517</v>
+        <v>0.1089079997870253</v>
       </c>
       <c r="J4">
-        <v>0.35620656335955547</v>
+        <v>0.26997745895597591</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.33019999999999999</v>
@@ -4433,21 +3946,21 @@
         <v>6.6</v>
       </c>
       <c r="G5">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="H5">
-        <v>8200</v>
+        <v>7400</v>
       </c>
       <c r="I5">
-        <v>0.1462146841954664</v>
+        <v>0.1194483126434117</v>
       </c>
       <c r="J5">
-        <v>0.36359006528488008</v>
+        <v>0.29610636488697262</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0.33019999999999999</v>
@@ -4465,59 +3978,59 @@
         <v>6.6</v>
       </c>
       <c r="G6">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="H6">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="I6">
-        <v>0.15055493513046769</v>
+        <v>0.12082294924315749</v>
       </c>
       <c r="J6">
-        <v>0.36756575959586862</v>
+        <v>0.30215539064378599</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.33019999999999999</v>
       </c>
       <c r="C7">
-        <v>0.1016</v>
+        <v>0.11176</v>
       </c>
       <c r="D7">
-        <v>11538.461538461541</v>
+        <v>8000</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>7.5714285714285721</v>
+        <v>7.2</v>
       </c>
       <c r="G7">
-        <v>6200</v>
+        <v>5000</v>
       </c>
       <c r="H7">
-        <v>9700</v>
+        <v>7900</v>
       </c>
       <c r="I7">
-        <v>0.14584562072781521</v>
+        <v>0.1083899582633205</v>
       </c>
       <c r="J7">
-        <v>0.3569878890291398</v>
+        <v>0.27058469180855338</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.33019999999999999</v>
       </c>
       <c r="C8">
-        <v>0.13969999999999999</v>
+        <v>0.1016</v>
       </c>
       <c r="D8">
         <v>11538.461538461541</v>
@@ -4526,262 +4039,54 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>7.8</v>
+        <v>7.5714285714285721</v>
       </c>
       <c r="G8">
         <v>5300</v>
       </c>
       <c r="H8">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I8">
-        <v>0.13452916830275799</v>
+        <v>0.1065765735235257</v>
       </c>
       <c r="J8">
-        <v>0.33792730920051978</v>
+        <v>0.26137629583608718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="D9">
+        <v>11538.461538461541</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7.8</v>
+      </c>
+      <c r="G9">
+        <v>4500</v>
+      </c>
+      <c r="H9">
+        <v>7100</v>
+      </c>
+      <c r="I9">
+        <v>9.6981689502700197E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.24142454162128971</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J3">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G3">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="6" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>